--- a/medicine/Enfance/James_Holding/James_Holding.xlsx
+++ b/medicine/Enfance/James_Holding/James_Holding.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Holding, né le 27 avril 1907 à Ben Avon, en Pennsylvanie, et mort le 29 mars 1997 à Pittsburgh, en Pennsylvanie, est un écrivain américain, auteur de roman policier et nouvelle.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études à l'université Yale en 1928, puis travaille comme publicitaire jusqu'en 1968.
 Dans les années 1940, il écrit des livres pour la jeunesse qu'il signe avec l'accord d'Ellery Queen sous le pseudonyme Ellery Queen Jr.. Puis, il devient un auteur prolifique de nouvelles de littérature policière. En 1960, il publie sa première nouvelle Le Trésor de Pachacamac (The Treasure of Pachacamac).
@@ -548,9 +562,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nouvelles signées James Holding
-Série Martin Leroy et King Danforth
-The Norwegian Apple Mystery (1960) Publié en français sous le titre Le Mystère norvégien, Éditions OPTA, Mystère magazine no 230 (mars 1967)
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Martin Leroy et King Danforth</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>The Norwegian Apple Mystery (1960) Publié en français sous le titre Le Mystère norvégien, Éditions OPTA, Mystère magazine no 230 (mars 1967)
 The African Fish Mystery (1961)
 The Italian Tile Mystery (1961)
 The Hong Kong Jewel Mystery (1963)
@@ -559,13 +581,89 @@
 The Japanese Card Mystery (1965)
 The New Zealand Bird Mystery (1967) Publié en français sous le titre Le Mystère de l'oiseau néo-zélandais, Éditions OPTA, Mystère magazine no 246 (juillet 1968)
 The Philippine Key Mystery (1968)
-The Borneo Snapshot Mystery (1972) Publié en français sous le titre Photo mystère, Éditions OPTA, Mystère magazine no 299 (janvier 1973)
-Série Lieutenant Randall
-The Vapor Clue (1961)
+The Borneo Snapshot Mystery (1972) Publié en français sous le titre Photo mystère, Éditions OPTA, Mystère magazine no 299 (janvier 1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Lieutenant Randall</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Vapor Clue (1961)
 The Sunburned Fisherman (1964) Publié en français sous le titre La Mort du pêcheur, Éditions OPTA, Alfred Hitchcock magazine no 91 (décembre 1968)
-The Misopedist (1968) Publié en français sous le titre Le Pédophobe, dans l'anthologie Histoires à faire pâlir la nuit, Pocket, coll. « Presses-Pocket » no 2362 (1985)  (ISBN 2-266-01611-3)
-Série Manuel Andradas
-A Question of Ethics (1960) Publié en français sous le titre Question d'éthique, dans l'anthologie Histoires percutantes, Pocket, coll. « Presses-Pocket » no 2114 (1983)  (ISBN 2-266-01309-2)
+The Misopedist (1968) Publié en français sous le titre Le Pédophobe, dans l'anthologie Histoires à faire pâlir la nuit, Pocket, coll. « Presses-Pocket » no 2362 (1985)  (ISBN 2-266-01611-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Manuel Andradas</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A Question of Ethics (1960) Publié en français sous le titre Question d'éthique, dans l'anthologie Histoires percutantes, Pocket, coll. « Presses-Pocket » no 2114 (1983)  (ISBN 2-266-01309-2)
 The Photographer and the Undertaker (1962) Publié en français sous le titre Le Photographe et le Croque-mort, Éditions OPTA, Mystère magazine no 186 (juillet 1963)
 The Photographer and the Policeman (1964) Publié en français sous le titre Le Photographe et le Policier, Éditions OPTA, Mystère magazine no 215 (décembre 1965)
 The Photographer and the Jeweler (1966)
@@ -581,9 +679,47 @@
 The Photographer and the Arsonist (1980)
 The Photographer and the Letter (1982)
 The Photographer and the Final Payment (1982)
-The Photographer and the Sailor (1984)
-Série Hal Johnson
-Library Fuzz (1972)
+The Photographer and the Sailor (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Hal Johnson</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Library Fuzz (1972)
 More Than a Mere Storybook (1973)
 The Bookmark (1973), le lieutenant Randall fait une apparition dans cette nouvelle Publié en français sous le titre Le Signet, Éditions OPTA, Mystère magazine no 331 (septembre 1975)
 The Elusive Mrs. Stout (1974)
@@ -591,9 +727,47 @@
 The Mutilated Scholar (1976)
 The Young Runners (1978)
 The Reward (1980)
-The Book Clue (1984)
-Autres nouvelles
-The Treasure of Pachacamac (1960) Publié en français sous le titre Le Trésor de Pachacamac, Éditions OPTA, Mystère magazine no 171 (avril 1962)
+The Book Clue (1984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Treasure of Pachacamac (1960) Publié en français sous le titre Le Trésor de Pachacamac, Éditions OPTA, Mystère magazine no 171 (avril 1962)
 An Accident in Honiora (1960) Publié en français sous le titre Les Requins de Guadalcanal, Éditions OPTA, Alfred Hitchcock magazine no 52 (août 1965)
 Go to Sleep, Darling (1960) Publié en français sous le titre Dors, ma chérie, Éditions OPTA, Alfred Hitchcock magazine no 29 (septembre 1963)
 The Lipstick Explosion (1960)
@@ -724,9 +898,47 @@
 To His Credit (1987)
 The Final Deadbeat (1988)
 Exit the Dragon (1988) Publié en français sous le titre Le Dragon terrassé, LGF, Alfred Hitchcock magazine 2e no 32 (octobre 1991), réédition dans l'anthologie L'Hôte d'un soir, Librairie des Champs-Élysées, coll. « Club des Masques » no 1021 (1995)  (ISBN 2-7024-8815-3)
-The Bank Job (1988)
-Nouvelles signées Ellery Queen Jr.
-The Black Dog Mystery (1942) Publié en français sous le titre Le Mystère du chien noir, Nicholson et Watson (1948)
+The Bank Job (1988)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nouvelles signées Ellery Queen Jr.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>The Black Dog Mystery (1942) Publié en français sous le titre Le Mystère du chien noir, Nicholson et Watson (1948)
 The Golden Eagle Mystery (1942) Publié en français sous le titre Le Mystère de l'aigle d'or, Nicholson et Watson (1947)
 The Green Turtle Mystery (1942) Publié en français sous le titre Le Mystère de la tortue verte, Nicholson et Watson (1946)
 The Red Chipmunk Mystery (1946)
@@ -735,12 +947,87 @@
 The Yellow Cat Mystery (1952)
 The Blue Herring Mystery (1954)
 The Mystery of the Merry Magician (1961) Publié en français sous le titre Les Diamants sous la mer, Deux coqs d'or, coll. « Étoile d'or » (1971)
-The Mystery of the Vanished Victim (1962) Publié en français sous le titre Poursuite en plein ciel, Deux coqs d'or, coll. « Étoile d'or » (1966)
-Nouvelle signée Clark Carlisle
-Most Surprised Man in the World (1960) Publié en français sous le titre L'Homme le plus surpris du monde, Éditions OPTA, Alfred Hitchcock magazine no 89 (septembre-octobre 1968)
-Ouvrages de littérature d'enfance et de jeunesse
-Romans
-The Lazy Little Zulu (1963)
+The Mystery of the Vanished Victim (1962) Publié en français sous le titre Poursuite en plein ciel, Deux coqs d'or, coll. « Étoile d'or » (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nouvelles signées James Holding</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nouvelle signée Clark Carlisle</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Most Surprised Man in the World (1960) Publié en français sous le titre L'Homme le plus surpris du monde, Éditions OPTA, Alfred Hitchcock magazine no 89 (septembre-octobre 1968)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>The Lazy Little Zulu (1963)
 Cato the Kiwi Bird (1963)
 Mr. Moonlight and Omar (1963)
 The Mystery of the False Fingertips (1964)
@@ -751,15 +1038,167 @@
 The Mystery of the Dolphin Inlet (1968)
 A Bottle of Pop (1972)
 The Watchcat (1975)
-The Ugliest Dog in the World (1979)
-Roman signé du pseudonyme Clark Carlisle
-Bugs Bunny's Carrot Machine (1971)
-Roman signé du pseudonyme Jay Freeman
-The Country Cousins (1964)
-Roman signé du pseudonyme Ellery Queen Jr.
-The Purple Bird Mystery (1965)
-Recueils de nouvelles
-The King's Contest and Other North African Tales (1964)
+The Ugliest Dog in the World (1979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Roman signé du pseudonyme Clark Carlisle</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bugs Bunny's Carrot Machine (1971)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Roman signé du pseudonyme Jay Freeman</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The Country Cousins (1964)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Roman signé du pseudonyme Ellery Queen Jr.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>The Purple Bird Mystery (1965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>James_Holding</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/James_Holding</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The King's Contest and Other North African Tales (1964)
 The Sky-Eaters and Other South Sea Tales (1966)</t>
         </is>
       </c>
